--- a/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
+++ b/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.60</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.24</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>62.18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.04</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000972</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新华万银多元策略灵活配置混合</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>000972</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>新华万银多元策略灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.07</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.21</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>95.86</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.27</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -706,25 +786,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501022</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.61</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515860</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实中证新兴科技100策略ETF</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>515860</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>嘉实中证新兴科技100策略ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>501022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
+++ b/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4110</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
+++ b/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
+++ b/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
+++ b/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.63</v>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.09</v>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.39</v>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1604,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
+++ b/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.84</v>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.63</v>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1786,14 +1851,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4.09</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="5">
@@ -1802,14 +1973,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>3.39</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="6">
@@ -1818,13 +1989,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
+++ b/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1946,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.73</v>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1941,14 +1984,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.84</v>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1957,14 +2022,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.63</v>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1973,14 +2060,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4.09</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="6">
@@ -1989,14 +2198,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>3.39</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="7">
@@ -2005,13 +2214,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
+++ b/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,209 +457,527 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>67.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.8709</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>62.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5428</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1636</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000972</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>新华万银多元策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -686,7 +1004,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -716,36 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.34</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3208</t>
+          <t>0.7331</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -754,36 +1072,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>159851</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>华宝中证金融科技主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>99.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6251</t>
+          <t>0.0319</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -792,32 +1110,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>516100</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.21</t>
+          <t>98.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1703</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -830,36 +1148,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1671</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -868,36 +1186,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515860</t>
+          <t>001270</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实中证新兴科技100策略ETF</t>
+          <t>英大灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0786</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -906,36 +1224,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501022</t>
+          <t>001271</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
+          <t>英大灵活配置混合B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.61</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +1261,215 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1227,215 +1753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0435</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>96.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5222</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>516100</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>97.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0469</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159851</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝中证金融科技主题ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1462,7 +1780,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1492,36 +1810,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7331</t>
+          <t>2.3208</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1530,36 +1848,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159851</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝中证金融科技主题ETF</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.07</t>
+          <t>95.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.6251</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1568,32 +1886,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516100</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.67</t>
+          <t>82.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.1703</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1606,36 +1924,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>79.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.1671</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1644,36 +1962,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>515860</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英大灵活配置混合A</t>
+          <t>嘉实中证新兴科技100策略ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>99.33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0786</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1682,414 +2000,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001271</t>
+          <t>501022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>英大灵活配置混合B</t>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>83.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6180</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159851</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝中证金融科技主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0923</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>516100</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159851</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝中证金融科技主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0590</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>516100</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009919</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上银核心成长混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009918</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上银核心成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2103,144 +2043,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.59</v>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
+++ b/数据整理/stocks/A股/创业板/300773-拉卡拉.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.73</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.63</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>4.09</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>3.39</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.59</v>
       </c>
     </row>
@@ -600,6 +617,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4367</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3413</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015112</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛精选行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516860</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015113</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛精选行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>53.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1261,7 +1828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1462,290 +2029,6 @@
       </c>
       <c r="H5" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9202</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4110</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5324</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1455</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515860</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实中证新兴科技100策略ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0610</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>159851</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝中证金融科技主题ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>97.80</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1820,26 +2103,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.34</t>
+          <t>25.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3208</t>
+          <t>1.9202</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1848,36 +2131,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>30.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6251</t>
+          <t>1.4110</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1886,36 +2169,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>10.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.21</t>
+          <t>95.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1703</t>
+          <t>0.5324</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1934,26 +2217,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>78.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1671</t>
+          <t>0.1455</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1972,7 +2255,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1982,16 +2265,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0786</t>
+          <t>0.0610</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2000,36 +2283,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501022</t>
+          <t>159851</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
+          <t>华宝中证金融科技主题ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.61</t>
+          <t>97.80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2038,6 +2321,290 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
